--- a/biology/Microbiologie/Tectohymenidae/Tectohymenidae.xlsx
+++ b/biology/Microbiologie/Tectohymenidae/Tectohymenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tectohymenidae sont une famille de Ciliés de la classe des Colpodea et de l’ordre des Bryometopida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Tectohymena, dérivé du grec τέκτων / tékton, « charpente », et υμένας / ymenas, « membrane ; peau ».
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Foissner (d) décrit ainsi cette famille : 
-« Petits à très petits Bryometopida, totalement ciliés. Deux cinéties somatiques[note 1]… Pas de suture postorale. L'appareil oral est formé d'un organelle paroral (OP) simple ou composé, et d'environ cinq organelles adoraux (OA), en « pavés ». L'organelle paroral en « U », nettement séparé de la cinétie somatique (n°)1, s'étendant le long de la marge proximale du vestibule est complètement recouvert par cette dernière. Les cinéties vestibulaires indistinctes sont présentes. Argyrome[note 2] à mailles irrégulières, serrées. Genre type : Tectohymena Foissner, 1993[1]. »
+« Petits à très petits Bryometopida, totalement ciliés. Deux cinéties somatiques[note 1]… Pas de suture postorale. L'appareil oral est formé d'un organelle paroral (OP) simple ou composé, et d'environ cinq organelles adoraux (OA), en « pavés ». L'organelle paroral en « U », nettement séparé de la cinétie somatique (n°)1, s'étendant le long de la marge proximale du vestibule est complètement recouvert par cette dernière. Les cinéties vestibulaires indistinctes sont présentes. Argyrome[note 2] à mailles irrégulières, serrées. Genre type : Tectohymena Foissner, 1993. »
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Tectohymena ne comprend que des espèces terrestres. D'après Foissner, « La plupart des Colpodes vivent dans les sols ou en biotopes semi-terrestres (mousses, flaques d'eau, infusions d'herbes) », et, citant un continent disparu, il précise en particulier « le genre Tectohymena n'a été récolté qu'en Laurasie »[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Tectohymena ne comprend que des espèces terrestres. D'après Foissner, « La plupart des Colpodes vivent dans les sols ou en biotopes semi-terrestres (mousses, flaques d'eau, infusions d'herbes) », et, citant un continent disparu, il précise en particulier « le genre Tectohymena n'a été récolté qu'en Laurasie ».
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (31 octobre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (31 octobre 2022) :
 Pseudokreyella Foissner, 1985
 Tectohymena Foissner, 1993</t>
         </is>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Tectohymenidae Foissner, 1993[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Tectohymenidae Foissner, 1993.
 </t>
         </is>
       </c>
